--- a/map/4.7.xlsx
+++ b/map/4.7.xlsx
@@ -457,7 +457,7 @@
   <dimension ref="A1:DC101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="BY115" sqref="BY115"/>
+      <selection activeCell="AV100" sqref="AV100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,7 +3224,7 @@
       <c r="CS9" s="2">
         <v>0</v>
       </c>
-      <c r="CT9" s="2">
+      <c r="CT9" s="3">
         <v>0</v>
       </c>
       <c r="CU9" s="2">
@@ -3529,7 +3529,7 @@
       <c r="CS10" s="2">
         <v>0</v>
       </c>
-      <c r="CT10" s="2">
+      <c r="CT10" s="3">
         <v>0</v>
       </c>
       <c r="CU10" s="2">
@@ -4139,13 +4139,13 @@
       <c r="CS12" s="2">
         <v>0</v>
       </c>
-      <c r="CT12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU12" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV12" s="3">
+      <c r="CT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV12" s="2">
         <v>0</v>
       </c>
       <c r="CW12" s="2">
@@ -4444,13 +4444,13 @@
       <c r="CS13" s="2">
         <v>0</v>
       </c>
-      <c r="CT13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU13" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV13" s="3">
+      <c r="CT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="2">
         <v>0</v>
       </c>
       <c r="CW13" s="2">
@@ -4749,13 +4749,13 @@
       <c r="CS14" s="2">
         <v>0</v>
       </c>
-      <c r="CT14" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU14" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV14" s="3">
+      <c r="CT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV14" s="2">
         <v>0</v>
       </c>
       <c r="CW14" s="2">
@@ -5054,13 +5054,13 @@
       <c r="CS15" s="2">
         <v>0</v>
       </c>
-      <c r="CT15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU15" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV15" s="3">
+      <c r="CT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV15" s="2">
         <v>0</v>
       </c>
       <c r="CW15" s="2">
@@ -5359,13 +5359,13 @@
       <c r="CS16" s="2">
         <v>0</v>
       </c>
-      <c r="CT16" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU16" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV16" s="3">
+      <c r="CT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV16" s="2">
         <v>0</v>
       </c>
       <c r="CW16" s="2">
@@ -5664,13 +5664,13 @@
       <c r="CS17" s="2">
         <v>0</v>
       </c>
-      <c r="CT17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU17" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV17" s="3">
+      <c r="CT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV17" s="2">
         <v>0</v>
       </c>
       <c r="CW17" s="2">
@@ -6327,7 +6327,7 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="2">
@@ -6632,7 +6632,7 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="2">
@@ -12197,61 +12197,61 @@
       <c r="AL39" s="2">
         <v>0</v>
       </c>
-      <c r="AM39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY39" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ39" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA39" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB39" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC39" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD39" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE39" s="3">
+      <c r="AM39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE39" s="2">
         <v>0</v>
       </c>
       <c r="BF39" s="2">
@@ -12502,61 +12502,61 @@
       <c r="AL40" s="2">
         <v>0</v>
       </c>
-      <c r="AM40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY40" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD40" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE40" s="3">
+      <c r="AM40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="2">
         <v>0</v>
       </c>
       <c r="BF40" s="2">
@@ -12807,61 +12807,61 @@
       <c r="AL41" s="2">
         <v>0</v>
       </c>
-      <c r="AM41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA41" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB41" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC41" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD41" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE41" s="3">
+      <c r="AM41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE41" s="2">
         <v>0</v>
       </c>
       <c r="BF41" s="2">
@@ -18799,7 +18799,7 @@
       <c r="B61" s="2">
         <v>0</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="3">
         <v>0</v>
       </c>
       <c r="D61" s="2">
@@ -18862,7 +18862,7 @@
       <c r="W61" s="1">
         <v>0</v>
       </c>
-      <c r="X61" s="1">
+      <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="1">
@@ -19104,7 +19104,7 @@
       <c r="B62" s="2">
         <v>0</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="3">
         <v>0</v>
       </c>
       <c r="D62" s="2">
@@ -19167,7 +19167,7 @@
       <c r="W62" s="1">
         <v>0</v>
       </c>
-      <c r="X62" s="1">
+      <c r="X62" s="3">
         <v>0</v>
       </c>
       <c r="Y62" s="1">
@@ -22383,73 +22383,73 @@
       <c r="BZ72" s="2">
         <v>0</v>
       </c>
-      <c r="CA72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV72" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW72" s="3">
+      <c r="CA72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV72" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW72" s="2">
         <v>0</v>
       </c>
     </row>
@@ -22688,73 +22688,73 @@
       <c r="BZ73" s="2">
         <v>0</v>
       </c>
-      <c r="CA73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV73" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW73" s="3">
+      <c r="CA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV73" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW73" s="2">
         <v>0</v>
       </c>
     </row>
@@ -22993,73 +22993,73 @@
       <c r="BZ74" s="2">
         <v>0</v>
       </c>
-      <c r="CA74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV74" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW74" s="3">
+      <c r="CA74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV74" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW74" s="2">
         <v>0</v>
       </c>
     </row>
@@ -23298,73 +23298,73 @@
       <c r="BZ75" s="2">
         <v>0</v>
       </c>
-      <c r="CA75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CB75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CC75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CD75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CE75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CF75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CG75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CH75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CI75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CJ75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CK75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CL75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CM75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CN75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CO75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CP75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CQ75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CR75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CS75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CT75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CU75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CV75" s="3">
-        <v>0</v>
-      </c>
-      <c r="CW75" s="3">
+      <c r="CA75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CB75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CC75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CD75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CE75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CF75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CG75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CH75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CI75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CJ75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CK75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CL75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CM75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CN75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CO75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CP75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CQ75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CR75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CS75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CT75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CU75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CV75" s="2">
+        <v>0</v>
+      </c>
+      <c r="CW75" s="2">
         <v>0</v>
       </c>
     </row>
@@ -24171,10 +24171,10 @@
       <c r="BL78" s="2">
         <v>0</v>
       </c>
-      <c r="BM78" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN78" s="2">
+      <c r="BM78" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN78" s="3">
         <v>0</v>
       </c>
       <c r="BO78" s="7">
@@ -25812,88 +25812,88 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="3">
-        <v>0</v>
-      </c>
-      <c r="C84" s="3">
-        <v>0</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-      <c r="I84" s="3">
-        <v>0</v>
-      </c>
-      <c r="J84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
-      <c r="L84" s="3">
-        <v>0</v>
-      </c>
-      <c r="M84" s="3">
-        <v>0</v>
-      </c>
-      <c r="N84" s="3">
-        <v>0</v>
-      </c>
-      <c r="O84" s="3">
-        <v>0</v>
-      </c>
-      <c r="P84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>0</v>
-      </c>
-      <c r="R84" s="3">
-        <v>0</v>
-      </c>
-      <c r="S84" s="3">
-        <v>0</v>
-      </c>
-      <c r="T84" s="3">
-        <v>0</v>
-      </c>
-      <c r="U84" s="3">
-        <v>0</v>
-      </c>
-      <c r="V84" s="3">
-        <v>0</v>
-      </c>
-      <c r="W84" s="3">
-        <v>0</v>
-      </c>
-      <c r="X84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="3">
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2">
+        <v>0</v>
+      </c>
+      <c r="M84" s="2">
+        <v>0</v>
+      </c>
+      <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="2">
+        <v>0</v>
+      </c>
+      <c r="P84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>0</v>
+      </c>
+      <c r="R84" s="2">
+        <v>0</v>
+      </c>
+      <c r="S84" s="2">
+        <v>0</v>
+      </c>
+      <c r="T84" s="2">
+        <v>0</v>
+      </c>
+      <c r="U84" s="2">
+        <v>0</v>
+      </c>
+      <c r="V84" s="2">
+        <v>0</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
+      </c>
+      <c r="X84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="2">
         <v>0</v>
       </c>
       <c r="AD84" s="7">
@@ -26117,88 +26117,88 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="3">
-        <v>0</v>
-      </c>
-      <c r="C85" s="3">
-        <v>0</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="J85" s="3">
-        <v>0</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0</v>
-      </c>
-      <c r="L85" s="3">
-        <v>0</v>
-      </c>
-      <c r="M85" s="3">
-        <v>0</v>
-      </c>
-      <c r="N85" s="3">
-        <v>0</v>
-      </c>
-      <c r="O85" s="3">
-        <v>0</v>
-      </c>
-      <c r="P85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>0</v>
-      </c>
-      <c r="R85" s="3">
-        <v>0</v>
-      </c>
-      <c r="S85" s="3">
-        <v>0</v>
-      </c>
-      <c r="T85" s="3">
-        <v>0</v>
-      </c>
-      <c r="U85" s="3">
-        <v>0</v>
-      </c>
-      <c r="V85" s="3">
-        <v>0</v>
-      </c>
-      <c r="W85" s="3">
-        <v>0</v>
-      </c>
-      <c r="X85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y85" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="3">
+      <c r="B85" s="2">
+        <v>0</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2">
+        <v>0</v>
+      </c>
+      <c r="M85" s="2">
+        <v>0</v>
+      </c>
+      <c r="N85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85" s="2">
+        <v>0</v>
+      </c>
+      <c r="P85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>0</v>
+      </c>
+      <c r="R85" s="2">
+        <v>0</v>
+      </c>
+      <c r="S85" s="2">
+        <v>0</v>
+      </c>
+      <c r="T85" s="2">
+        <v>0</v>
+      </c>
+      <c r="U85" s="2">
+        <v>0</v>
+      </c>
+      <c r="V85" s="2">
+        <v>0</v>
+      </c>
+      <c r="W85" s="2">
+        <v>0</v>
+      </c>
+      <c r="X85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="2">
         <v>0</v>
       </c>
       <c r="AD85" s="7">
@@ -26422,88 +26422,88 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="3">
-        <v>0</v>
-      </c>
-      <c r="C86" s="3">
-        <v>0</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86" s="3">
-        <v>0</v>
-      </c>
-      <c r="J86" s="3">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3">
-        <v>0</v>
-      </c>
-      <c r="L86" s="3">
-        <v>0</v>
-      </c>
-      <c r="M86" s="3">
-        <v>0</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0</v>
-      </c>
-      <c r="O86" s="3">
-        <v>0</v>
-      </c>
-      <c r="P86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="3">
-        <v>0</v>
-      </c>
-      <c r="R86" s="3">
-        <v>0</v>
-      </c>
-      <c r="S86" s="3">
-        <v>0</v>
-      </c>
-      <c r="T86" s="3">
-        <v>0</v>
-      </c>
-      <c r="U86" s="3">
-        <v>0</v>
-      </c>
-      <c r="V86" s="3">
-        <v>0</v>
-      </c>
-      <c r="W86" s="3">
-        <v>0</v>
-      </c>
-      <c r="X86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y86" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="3">
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2">
+        <v>0</v>
+      </c>
+      <c r="M86" s="2">
+        <v>0</v>
+      </c>
+      <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86" s="2">
+        <v>0</v>
+      </c>
+      <c r="P86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>0</v>
+      </c>
+      <c r="R86" s="2">
+        <v>0</v>
+      </c>
+      <c r="S86" s="2">
+        <v>0</v>
+      </c>
+      <c r="T86" s="2">
+        <v>0</v>
+      </c>
+      <c r="U86" s="2">
+        <v>0</v>
+      </c>
+      <c r="V86" s="2">
+        <v>0</v>
+      </c>
+      <c r="W86" s="2">
+        <v>0</v>
+      </c>
+      <c r="X86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="2">
         <v>0</v>
       </c>
       <c r="AD86" s="7">
@@ -26527,25 +26527,25 @@
       <c r="AJ86" s="2">
         <v>0</v>
       </c>
-      <c r="AK86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP86" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ86" s="3">
+      <c r="AK86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="2">
         <v>0</v>
       </c>
       <c r="AR86" s="2">
@@ -26727,88 +26727,88 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="3">
-        <v>0</v>
-      </c>
-      <c r="C87" s="3">
-        <v>0</v>
-      </c>
-      <c r="D87" s="3">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3">
-        <v>0</v>
-      </c>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="J87" s="3">
-        <v>0</v>
-      </c>
-      <c r="K87" s="3">
-        <v>0</v>
-      </c>
-      <c r="L87" s="3">
-        <v>0</v>
-      </c>
-      <c r="M87" s="3">
-        <v>0</v>
-      </c>
-      <c r="N87" s="3">
-        <v>0</v>
-      </c>
-      <c r="O87" s="3">
-        <v>0</v>
-      </c>
-      <c r="P87" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="3">
-        <v>0</v>
-      </c>
-      <c r="R87" s="3">
-        <v>0</v>
-      </c>
-      <c r="S87" s="3">
-        <v>0</v>
-      </c>
-      <c r="T87" s="3">
-        <v>0</v>
-      </c>
-      <c r="U87" s="3">
-        <v>0</v>
-      </c>
-      <c r="V87" s="3">
-        <v>0</v>
-      </c>
-      <c r="W87" s="3">
-        <v>0</v>
-      </c>
-      <c r="X87" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y87" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC87" s="3">
+      <c r="B87" s="2">
+        <v>0</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>0</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="2">
+        <v>0</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>0</v>
+      </c>
+      <c r="R87" s="2">
+        <v>0</v>
+      </c>
+      <c r="S87" s="2">
+        <v>0</v>
+      </c>
+      <c r="T87" s="2">
+        <v>0</v>
+      </c>
+      <c r="U87" s="2">
+        <v>0</v>
+      </c>
+      <c r="V87" s="2">
+        <v>0</v>
+      </c>
+      <c r="W87" s="2">
+        <v>0</v>
+      </c>
+      <c r="X87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="2">
         <v>0</v>
       </c>
       <c r="AD87" s="7">
@@ -26832,25 +26832,25 @@
       <c r="AJ87" s="2">
         <v>0</v>
       </c>
-      <c r="AK87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP87" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ87" s="3">
+      <c r="AK87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ87" s="2">
         <v>0</v>
       </c>
       <c r="AR87" s="2">
@@ -27137,25 +27137,25 @@
       <c r="AJ88" s="2">
         <v>0</v>
       </c>
-      <c r="AK88" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL88" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM88" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN88" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO88" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP88" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ88" s="3">
+      <c r="AK88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ88" s="2">
         <v>0</v>
       </c>
       <c r="AR88" s="2">
@@ -27442,25 +27442,25 @@
       <c r="AJ89" s="2">
         <v>0</v>
       </c>
-      <c r="AK89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ89" s="3">
+      <c r="AK89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ89" s="2">
         <v>0</v>
       </c>
       <c r="AR89" s="2">
@@ -27747,25 +27747,25 @@
       <c r="AJ90" s="2">
         <v>0</v>
       </c>
-      <c r="AK90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP90" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ90" s="3">
+      <c r="AK90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ90" s="2">
         <v>0</v>
       </c>
       <c r="AR90" s="2">
@@ -28052,25 +28052,25 @@
       <c r="AJ91" s="2">
         <v>0</v>
       </c>
-      <c r="AK91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ91" s="3">
+      <c r="AK91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="2">
         <v>0</v>
       </c>
       <c r="AR91" s="2">
@@ -28357,25 +28357,25 @@
       <c r="AJ92" s="2">
         <v>0</v>
       </c>
-      <c r="AK92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP92" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ92" s="3">
+      <c r="AK92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ92" s="2">
         <v>0</v>
       </c>
       <c r="AR92" s="2">
@@ -28596,7 +28596,7 @@
       <c r="N93" s="2">
         <v>0</v>
       </c>
-      <c r="O93" s="2">
+      <c r="O93" s="3">
         <v>0</v>
       </c>
       <c r="P93" s="2">
@@ -28662,25 +28662,25 @@
       <c r="AJ93" s="2">
         <v>0</v>
       </c>
-      <c r="AK93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP93" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ93" s="3">
+      <c r="AK93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="2">
         <v>0</v>
       </c>
       <c r="AR93" s="2">
@@ -28901,7 +28901,7 @@
       <c r="N94" s="2">
         <v>0</v>
       </c>
-      <c r="O94" s="2">
+      <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="2">
@@ -28967,25 +28967,25 @@
       <c r="AJ94" s="2">
         <v>0</v>
       </c>
-      <c r="AK94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ94" s="3">
+      <c r="AK94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="2">
         <v>0</v>
       </c>
       <c r="AR94" s="2">
@@ -29272,25 +29272,25 @@
       <c r="AJ95" s="2">
         <v>0</v>
       </c>
-      <c r="AK95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP95" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ95" s="3">
+      <c r="AK95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ95" s="2">
         <v>0</v>
       </c>
       <c r="AR95" s="2">
@@ -29508,10 +29508,10 @@
       <c r="M96" s="7">
         <v>1</v>
       </c>
-      <c r="N96" s="2">
-        <v>0</v>
-      </c>
-      <c r="O96" s="2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="2">
@@ -29577,25 +29577,25 @@
       <c r="AJ96" s="2">
         <v>0</v>
       </c>
-      <c r="AK96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ96" s="3">
+      <c r="AK96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="2">
         <v>0</v>
       </c>
       <c r="AR96" s="2">
@@ -29882,25 +29882,25 @@
       <c r="AJ97" s="2">
         <v>0</v>
       </c>
-      <c r="AK97" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL97" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM97" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN97" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO97" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP97" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ97" s="3">
+      <c r="AK97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ97" s="2">
         <v>0</v>
       </c>
       <c r="AR97" s="2">
@@ -30187,25 +30187,25 @@
       <c r="AJ98" s="2">
         <v>0</v>
       </c>
-      <c r="AK98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP98" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ98" s="3">
+      <c r="AK98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ98" s="2">
         <v>0</v>
       </c>
       <c r="AR98" s="2">
@@ -30492,25 +30492,25 @@
       <c r="AJ99" s="2">
         <v>0</v>
       </c>
-      <c r="AK99" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL99" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM99" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN99" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO99" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP99" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ99" s="3">
+      <c r="AK99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ99" s="2">
         <v>0</v>
       </c>
       <c r="AR99" s="2">
@@ -30797,25 +30797,25 @@
       <c r="AJ100" s="2">
         <v>0</v>
       </c>
-      <c r="AK100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ100" s="3">
+      <c r="AK100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ100" s="2">
         <v>0</v>
       </c>
       <c r="AR100" s="2">
@@ -31102,25 +31102,25 @@
       <c r="AJ101" s="2">
         <v>0</v>
       </c>
-      <c r="AK101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP101" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ101" s="3">
+      <c r="AK101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ101" s="2">
         <v>0</v>
       </c>
       <c r="AR101" s="2">
@@ -31299,12 +31299,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:CW4 AE91:CW101 B29:BT32 B5:K6 AK5:AQ6 B33:CW35 B71:AR83 AE84:AR90 BW71:CW90 B36:AJ60 BK36:CW60 B28:AQ28 BR5:BT28 AK27:AQ27 B27:K27 B7:D26 B61:CW70">
+  <conditionalFormatting sqref="B2:CW4 B29:BT32 B5:K6 AK5:AQ6 B33:CW35 B36:AJ60 BK36:CW60 B28:AQ28 BR5:BT28 AK27:AQ27 B27:K27 B7:D26 B61:CW70 B71:AR83 B84:AC87 AE84:AR85 AR86:AR90 AR91:CW101 AE86:AQ101 BW71:CW90">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84:AD101">
+  <conditionalFormatting sqref="B88:AD101 AD84:AD87">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -31325,17 +31325,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK36:BJ60">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR5:BQ6 AR27:BQ28 AS7:BQ26">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:AR26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
